--- a/Semester 5/1. Info ITI/JADWAL PRAKTIKUM PSIF (REVISI).xlsx
+++ b/Semester 5/1. Info ITI/JADWAL PRAKTIKUM PSIF (REVISI).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9795"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9795" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="JADWAL PRAKTIKUM PSIF" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,15 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'JADWAL PRAKTIKUM PSIF'!$A$1:$F$27</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'JADWAL PRAKTIKUM PSIF'!$A$1:$F$32</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Sheet2!$A$1:$F$80</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="139">
   <si>
     <t>LABORATORIUM KOMPUTER PRODI INFORMATIKA</t>
   </si>
@@ -37,6 +38,9 @@
   </si>
   <si>
     <t>SEMESTER GANJIL 2024/2025</t>
+  </si>
+  <si>
+    <t>REVISI TERBARU, 23 SEPTEMBER 2024</t>
   </si>
   <si>
     <t>LABORATORIUM ILMU KOMPUTER (LIK)</t>
@@ -66,7 +70,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">I            </t>
     </r>
@@ -75,7 +79,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">             </t>
     </r>
@@ -84,19 +88,16 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>08.00 - 10.30</t>
     </r>
   </si>
   <si>
-    <t>LIK-B (MTK 1/IFA - Bu Indrati - 08.00 - 10.30)</t>
-  </si>
-  <si>
     <t>LIK-B ( Prog. Dsr 1 - Melani - 08.00 - 10.30)</t>
   </si>
   <si>
-    <t>Basdat / IF.B</t>
+    <t>Basdat / IF.B                (SMT-III)</t>
   </si>
   <si>
     <t>LIK-B (AN -TIP Bu IndRati - 08.00 - 10.30)</t>
@@ -114,7 +115,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">II            </t>
     </r>
@@ -123,7 +124,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">         1</t>
     </r>
@@ -132,22 +133,22 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>0.40 - 12.40</t>
     </r>
   </si>
   <si>
-    <t>Pemrog. Visual / IF</t>
-  </si>
-  <si>
-    <t>SO / IF.A</t>
-  </si>
-  <si>
-    <t>Basdat / IF.A</t>
-  </si>
-  <si>
-    <t>SO / IF.B</t>
+    <t>Pemrog. Visual / IF (SMT-V)</t>
+  </si>
+  <si>
+    <t>SO / IF.A             (SMT-III)</t>
+  </si>
+  <si>
+    <t>Basdat / IF.A       (SMT-III)</t>
+  </si>
+  <si>
+    <t>SO / IF.B           (SMT-III)</t>
   </si>
   <si>
     <t>SHOLAT JUMAT</t>
@@ -159,7 +160,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">III           </t>
     </r>
@@ -168,7 +169,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">        </t>
     </r>
@@ -177,19 +178,16 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>13.00 - 16.00</t>
     </r>
   </si>
   <si>
-    <t>Pemrog. Dsr 1 / IF.B (13.00 - 16.00)</t>
-  </si>
-  <si>
-    <t>WEB / IF.B (13.00 - 15.00)</t>
-  </si>
-  <si>
-    <t>WEB / IF.A (13.00 - 15.00)</t>
+    <t>Pemrog. Dsr 1 / IF (13.00 - 16.00) (SMT-I)</t>
+  </si>
+  <si>
+    <t>WEB / IF.B (13.00 - 15.00) (SMT-III)</t>
   </si>
   <si>
     <t xml:space="preserve">NB : </t>
@@ -225,35 +223,571 @@
     <t>*** UAS : 27 Jan'   s/d   16 Feb' 2025 ***</t>
   </si>
   <si>
-    <t>*** Praktikum dilaksanakan : Senin, 1 Oktober  s/d  13 Desember 2024</t>
-  </si>
-  <si>
     <t>*** Di Laboratorium Komputer Prodi Teknik Informatika Informatika (LIK)</t>
   </si>
   <si>
     <t>( Husni, ST, M. Kom, M. Sc )</t>
   </si>
   <si>
-    <r>
-      <t>Pemrog. Dsr 1 / IF.A</t>
-    </r>
+    <t xml:space="preserve">1. SMT I </t>
+  </si>
+  <si>
+    <t>: Pemrog. Dasar I (Python)</t>
+  </si>
+  <si>
+    <t>2. SMT III</t>
+  </si>
+  <si>
+    <t xml:space="preserve">: WEB, Basdat (MY SQL), SO (Linux) </t>
+  </si>
+  <si>
+    <t>3. SMT V</t>
+  </si>
+  <si>
+    <t>: Pemrog. Visual (VB)</t>
+  </si>
+  <si>
+    <t>Pembimbing PA Angkatan 2024/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T. IF.A </t>
+  </si>
+  <si>
+    <t>: Suryo Bramasto, MT</t>
+  </si>
+  <si>
+    <t>T. IF.B</t>
+  </si>
+  <si>
+    <t>: Husni, ST, M. Kom, M.Sc</t>
+  </si>
+  <si>
+    <t>SHIFT / MDL.I</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
-        <sz val="12"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> (13.00 - 16.00)</t>
-    </r>
+      <t xml:space="preserve">Basdat / IF.B               </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (SMT-III)</t>
+    </r>
+  </si>
+  <si>
+    <t>LIK-B (AN -TIP Bu Ind : 08.00 - 10.30)</t>
+  </si>
+  <si>
+    <t>LIK-B (MTK-1 / IFB -        Bu Indrati - 08.00 - 10.30)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">SO / IF.A            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (SMT-III)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Basdat / IF.A     </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  (SMT-III)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">SO / IF.B         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  (SMT-III)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">WEB / IF.B </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(13.00 - 15.00) (SMT-III)</t>
+    </r>
+  </si>
+  <si>
+    <t>SHIFT / MDL.II</t>
+  </si>
+  <si>
+    <t>SENIN, 07 Okt' 24</t>
+  </si>
+  <si>
+    <t>SELASA, 08 Okt' 24</t>
+  </si>
+  <si>
+    <t>RABU, 09 Okt' 24</t>
+  </si>
+  <si>
+    <t>KAMIS, 10 Okt' 24</t>
+  </si>
+  <si>
+    <t>JUM'AT, 11 Okt' 24</t>
+  </si>
+  <si>
+    <t>SHIFT / MDL.III</t>
+  </si>
+  <si>
+    <t>SENIN, 14 Okt' 24</t>
+  </si>
+  <si>
+    <t>SELASA, 15 Okt' 24</t>
+  </si>
+  <si>
+    <t>RABU, 16 Okt' 24</t>
+  </si>
+  <si>
+    <t>KAMIS, 17 Okt' 24</t>
+  </si>
+  <si>
+    <t>JUM'AT, 18 Okt' 24</t>
+  </si>
+  <si>
+    <t>SHIFT / MDL.IV</t>
+  </si>
+  <si>
+    <t>SENIN, 21 Okt' 24</t>
+  </si>
+  <si>
+    <t>SELASA, 22 Okt' 24</t>
+  </si>
+  <si>
+    <t>RABU, 23 Okt' 24</t>
+  </si>
+  <si>
+    <t>KAMIS, 24 Okt' 24</t>
+  </si>
+  <si>
+    <t>JUM'AT, 25 Okt' 24</t>
+  </si>
+  <si>
+    <t>*** UJIAN TENGAH SEMESTER (UTS) 28 OKTOBER s/d 10 NOVEMBER 2024 ***</t>
+  </si>
+  <si>
+    <t>SHIFT / MDL.V</t>
+  </si>
+  <si>
+    <t>SENIN, 11 Nov' 24</t>
+  </si>
+  <si>
+    <t>SELASA, 12 Nov' 24</t>
+  </si>
+  <si>
+    <t>RABU, 13 Nov' 24</t>
+  </si>
+  <si>
+    <t>KAMIS, 14 Nov' 24</t>
+  </si>
+  <si>
+    <t>JUM'AT, 15 Nov' 24</t>
+  </si>
+  <si>
+    <t>SHIFT / MDL.VI</t>
+  </si>
+  <si>
+    <t>SENIN, 18 Nov' 24</t>
+  </si>
+  <si>
+    <t>SELASA, 19 Nov' 24</t>
+  </si>
+  <si>
+    <t>RABU, 20 Nov' 24</t>
+  </si>
+  <si>
+    <t>KAMIS, 21 Nov' 24</t>
+  </si>
+  <si>
+    <t>JUM'AT, 22 Nov' 24</t>
+  </si>
+  <si>
+    <t>SHIFT / MDL.VII</t>
+  </si>
+  <si>
+    <t>SENIN, 25 Nov' 24</t>
+  </si>
+  <si>
+    <t>SELASA, 26 Nov' 24</t>
+  </si>
+  <si>
+    <t>RABU, 27 Nov' 24</t>
+  </si>
+  <si>
+    <t>KAMIS, 28 Nov' 24</t>
+  </si>
+  <si>
+    <t>JUM'AT, 29 Nov' 24</t>
+  </si>
+  <si>
+    <t>*** UJIAN AKHIR SEMESTER (UAS) 27 JANUARI s/d 16 FEBRUARI 2025 ***</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MK. </t>
+  </si>
+  <si>
+    <t>SMT</t>
+  </si>
+  <si>
+    <t>Pemrog. Dasar-1</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>Basis Data (IF.A)</t>
+  </si>
+  <si>
+    <t>III</t>
+  </si>
+  <si>
+    <t>Basis Data (IF.B)</t>
+  </si>
+  <si>
+    <t>Pemrog. WEB (IF.A)</t>
+  </si>
+  <si>
+    <t>Pemrog. WEB (IF.B)</t>
+  </si>
+  <si>
+    <t>Sistem Operasi (IF.A)</t>
+  </si>
+  <si>
+    <t>Sistem Operasi (IF.B)</t>
+  </si>
+  <si>
+    <t>Pemrog. Visual</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>SELASA, 01 Okt' 24</t>
+  </si>
+  <si>
+    <t>RABU, 2 Okt' 24</t>
+  </si>
+  <si>
+    <t>KAMIS, 3 Okt' 24</t>
+  </si>
+  <si>
+    <t>JUM'AT, 4 Okt' 24</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pemrog. Visual / IF </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">(Mdl.I) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Pemrog. Dsr 1 / IF.B</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (13.00 - 16.00) (Mdl-I)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pemrog. Visual / IF </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">(Mdl.II) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Pemrog. Dsr 1 / IF.B</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (13.00 - 16.00) (Mdl-II)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pemrog. Visual / IF </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">(Mdl.III) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Pemrog. Dsr 1 / IF.B</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (13.00 - 16.00) (Mdl-III)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pemrog. Visual / IF </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">(Mdl.IV) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Pemrog. Dsr 1 / IF.B</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (13.00 - 16.00) (Mdl-IV)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pemrog. Visual / IF </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">(Mdl.V) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Pemrog. Dsr 1 / IF.B</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (13.00 - 16.00) (Mdl-V)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pemrog. Visual / IF </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">(Mdl.VI) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Pemrog. Dsr 1 / IF.B</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (13.00 - 16.00) (Mdl-VI)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pemrog. Visual / IF </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">(Mdl.VII) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Pemrog. Dsr 1 / IF.B</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (13.00 - 16.00) (Mdl-VII)</t>
+    </r>
+  </si>
+  <si>
+    <t>SENIN, 02 Des' 24</t>
+  </si>
+  <si>
+    <t>SELASA, 03 Des' 25</t>
+  </si>
+  <si>
+    <t>RABU, 04 Des' 26</t>
+  </si>
+  <si>
+    <t>KAMIS, 05 Des' 27</t>
+  </si>
+  <si>
+    <t>JUMAT, 06 Des' 28</t>
+  </si>
+  <si>
+    <t>*** Praktikum dilaksanakan : Selasa, 1 Oktober  s/d  13 Desember 2024</t>
+  </si>
+  <si>
+    <t>WEB / IF.A (08.00 - 10.00) (SMT-III)</t>
+  </si>
+  <si>
+    <t>Praktikum dimulai   1 Oktober 2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="23">
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,32 +800,32 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="36"/>
+      <sz val="28"/>
       <color rgb="FF0070C0"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="36"/>
+      <sz val="28"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="36"/>
+      <sz val="28"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -300,12 +834,12 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -315,91 +849,71 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="24"/>
+      <sz val="22"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
@@ -410,8 +924,126 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="36"/>
+      <color rgb="FF0070C0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="36"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
       <sz val="14"/>
-      <color theme="1"/>
+      <color theme="4"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -430,7 +1062,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -632,6 +1264,58 @@
       <top style="thin">
         <color theme="1"/>
       </top>
+      <bottom style="double">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="double">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="double">
+        <color theme="1"/>
+      </right>
+      <top style="double">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color theme="1"/>
       </bottom>
@@ -652,6 +1336,163 @@
       <left style="thin">
         <color theme="1"/>
       </left>
+      <right style="double">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color theme="1"/>
+      </right>
+      <top style="double">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="double">
+        <color theme="1"/>
+      </right>
+      <top style="double">
+        <color theme="1"/>
+      </top>
+      <bottom style="double">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color theme="1"/>
+      </left>
+      <right style="double">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="double">
+        <color theme="1"/>
+      </top>
+      <bottom style="double">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="double">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="double">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="double">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
       <right style="thin">
         <color theme="1"/>
       </right>
@@ -666,7 +1507,7 @@
         <color theme="1"/>
       </left>
       <right style="double">
-        <color theme="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top/>
       <bottom/>
@@ -690,7 +1531,7 @@
         <color theme="1"/>
       </left>
       <right style="double">
-        <color theme="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color theme="1"/>
@@ -703,7 +1544,7 @@
         <color theme="1"/>
       </left>
       <right style="double">
-        <color theme="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top/>
       <bottom style="thin">
@@ -713,7 +1554,7 @@
     </border>
     <border>
       <left style="double">
-        <color theme="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
         <color theme="1"/>
@@ -730,8 +1571,8 @@
       <left style="thin">
         <color theme="1"/>
       </left>
-      <right style="thin">
-        <color theme="1"/>
+      <right style="double">
+        <color rgb="FF000000"/>
       </right>
       <top/>
       <bottom style="double">
@@ -740,13 +1581,71 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="1"/>
+      <left style="double">
+        <color auto="1"/>
       </left>
       <right style="double">
-        <color theme="1"/>
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
       </right>
       <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
       <bottom style="double">
         <color theme="1"/>
       </bottom>
@@ -756,7 +1655,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -767,43 +1666,136 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -812,50 +1804,124 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1158,10 +2224,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1203,7 +2269,7 @@
       <c r="E3" s="5"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" ht="6" customHeight="1">
       <c r="A4" s="7"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -1211,15 +2277,15 @@
       <c r="E4" s="5"/>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:6" ht="46.5">
-      <c r="A5" s="24" t="s">
+    <row r="5" spans="1:6" ht="39.950000000000003" customHeight="1">
+      <c r="A5" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="26"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="73"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="7"/>
@@ -1230,380 +2296,1766 @@
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6" ht="15.75">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="29"/>
+      <c r="B7" s="75"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="76"/>
     </row>
     <row r="8" spans="1:6" ht="15.75">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="29"/>
+      <c r="B8" s="75"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="76"/>
     </row>
     <row r="9" spans="1:6" ht="15.75">
       <c r="A9" s="8"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="10"/>
+      <c r="E9" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="11"/>
     </row>
     <row r="10" spans="1:6" ht="30">
-      <c r="A10" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="33"/>
-    </row>
-    <row r="11" spans="1:6" ht="15.75">
-      <c r="A11" s="11" t="s">
+      <c r="A10" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B10" s="79"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="80"/>
+    </row>
+    <row r="11" spans="1:6" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A11" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="B11" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="C11" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="D11" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="E11" s="32" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="24" customHeight="1">
-      <c r="A12" s="35" t="s">
+      <c r="F11" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="13" t="s">
+    </row>
+    <row r="12" spans="1:6" ht="24" customHeight="1" thickTop="1">
+      <c r="A12" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="B12" s="34"/>
+      <c r="C12" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="41" t="s">
+      <c r="D12" s="69" t="s">
+        <v>137</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="24" customHeight="1">
+      <c r="A13" s="85"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="82"/>
+      <c r="E13" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="37" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="24" customHeight="1">
+      <c r="A14" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="87" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="67" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="24" customHeight="1">
+      <c r="A15" s="85"/>
+      <c r="B15" s="81"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="68"/>
+    </row>
+    <row r="16" spans="1:6" ht="24" customHeight="1">
+      <c r="A16" s="85" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="88" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="88"/>
+      <c r="D16" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="24" customHeight="1">
-      <c r="A13" s="36"/>
-      <c r="B13" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="39"/>
-      <c r="E13" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="24" customHeight="1">
-      <c r="A14" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="42" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="24" customHeight="1">
-      <c r="A15" s="36"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="43"/>
-    </row>
-    <row r="16" spans="1:6" ht="24" customHeight="1">
-      <c r="A16" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="45" t="s">
+      <c r="E16" s="65" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="69"/>
+    </row>
+    <row r="17" spans="1:6" ht="24" customHeight="1" thickBot="1">
+      <c r="A17" s="86"/>
+      <c r="B17" s="89"/>
+      <c r="C17" s="89"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="70"/>
+    </row>
+    <row r="18" spans="1:6" ht="7.5" customHeight="1" thickTop="1">
+      <c r="A18" s="38"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="39"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.75">
+      <c r="A19" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="43"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="43"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" s="43"/>
+    </row>
+    <row r="22" spans="1:6" ht="21">
+      <c r="A22" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="43"/>
+    </row>
+    <row r="23" spans="1:6" ht="15.75">
+      <c r="A23" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="43"/>
+    </row>
+    <row r="24" spans="1:6" ht="15.75">
+      <c r="A24" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="43"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.75">
+      <c r="A25" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="43"/>
+    </row>
+    <row r="26" spans="1:6" ht="15.75">
+      <c r="A26" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="F26" s="43"/>
+    </row>
+    <row r="27" spans="1:6" ht="8.25" customHeight="1">
+      <c r="A27" s="38"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="39"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.75">
+      <c r="A28" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="39"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.75">
+      <c r="A29" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" s="42" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="24" customHeight="1">
-      <c r="A17" s="37"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="44"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-    </row>
-    <row r="19" spans="1:6" ht="15.75">
-      <c r="A19" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19" s="20"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" s="20"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F21" s="20"/>
-    </row>
-    <row r="22" spans="1:6" ht="21">
-      <c r="A22" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="F22" s="20"/>
-    </row>
-    <row r="23" spans="1:6" ht="15.75">
-      <c r="A23" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="F23" s="20"/>
-    </row>
-    <row r="24" spans="1:6" ht="15.75">
-      <c r="A24" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="E24" s="19"/>
-      <c r="F24" s="20"/>
-    </row>
-    <row r="25" spans="1:6" ht="15.75">
-      <c r="A25" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E25" s="19"/>
-      <c r="F25" s="20"/>
-    </row>
-    <row r="26" spans="1:6" ht="15.75">
-      <c r="A26" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E26" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="F26" s="20"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-    </row>
-    <row r="28" spans="1:6" ht="15.75">
-      <c r="A28" s="18"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-    </row>
-    <row r="29" spans="1:6" ht="15.75">
-      <c r="A29" s="18"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
+      <c r="B29" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="39"/>
     </row>
     <row r="30" spans="1:6" ht="15.75">
-      <c r="A30" s="18"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-    </row>
-    <row r="31" spans="1:6" ht="15.75">
-      <c r="A31" s="18"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-    </row>
-    <row r="32" spans="1:6" ht="15.75">
-      <c r="A32" s="18"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-    </row>
-    <row r="42" spans="1:6" ht="15.75">
-      <c r="A42" s="34"/>
-      <c r="B42" s="34"/>
-      <c r="C42" s="34"/>
-      <c r="D42" s="34"/>
-    </row>
-    <row r="43" spans="1:6" ht="15.75">
-      <c r="A43" s="18"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
+      <c r="A30" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="39"/>
+    </row>
+    <row r="31" spans="1:6" ht="9" customHeight="1">
+      <c r="A31" s="49"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="11"/>
+    </row>
+    <row r="32" spans="1:6" ht="8.25" customHeight="1">
+      <c r="A32" s="30"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+    </row>
+    <row r="34" spans="1:4" ht="15.75">
+      <c r="A34" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" s="51"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+    </row>
+    <row r="35" spans="1:4" ht="15.75">
+      <c r="A35" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+    </row>
+    <row r="36" spans="1:4" ht="15.75">
+      <c r="A36" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+    </row>
+    <row r="39" spans="1:4" ht="15.75">
+      <c r="A39" s="83"/>
+      <c r="B39" s="83"/>
+      <c r="C39" s="83"/>
+      <c r="D39" s="83"/>
+    </row>
+    <row r="40" spans="1:4" ht="15.75">
+      <c r="A40" s="30"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A39:D39"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="E14:E15"/>
     <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E16:E17"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.25" bottom="0.5" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.25" bottom="0" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F95"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16:C17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="5" max="6" width="22.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:6" ht="8.25" customHeight="1">
+      <c r="A4" s="7"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" ht="32.25" customHeight="1">
+      <c r="A5" s="105" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="106"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="107"/>
+    </row>
+    <row r="6" spans="1:6" ht="10.5" customHeight="1">
+      <c r="A6" s="7"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75">
+      <c r="A7" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="75"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="76"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.75">
+      <c r="A8" s="77" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="75"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="76"/>
+    </row>
+    <row r="9" spans="1:6" ht="9" customHeight="1">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="11"/>
+    </row>
+    <row r="10" spans="1:6" ht="24.75" customHeight="1">
+      <c r="A10" s="108" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="109"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="110"/>
+    </row>
+    <row r="11" spans="1:6" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A11" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="26.25" thickTop="1">
+      <c r="A12" s="102" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="90" t="s">
+        <v>138</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="100" t="s">
+        <v>137</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" customHeight="1" thickBot="1">
+      <c r="A13" s="103"/>
+      <c r="B13" s="91"/>
+      <c r="C13" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="101"/>
+      <c r="E13" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" thickTop="1">
+      <c r="A14" s="102" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="91"/>
+      <c r="C14" s="98" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="98" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="98" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="94" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="17.25" customHeight="1" thickBot="1">
+      <c r="A15" s="103"/>
+      <c r="B15" s="91"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="95"/>
+    </row>
+    <row r="16" spans="1:6" ht="17.25" customHeight="1" thickTop="1">
+      <c r="A16" s="104" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="91"/>
+      <c r="C16" s="99"/>
+      <c r="D16" s="98" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="93" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="96"/>
+    </row>
+    <row r="17" spans="1:6" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A17" s="103"/>
+      <c r="B17" s="92"/>
+      <c r="C17" s="89"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="95"/>
+    </row>
+    <row r="18" spans="1:6" ht="12.95" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+    </row>
+    <row r="19" spans="1:6" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A19" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="26.25" customHeight="1" thickTop="1">
+      <c r="A20" s="102" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="100" t="s">
+        <v>137</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" thickBot="1">
+      <c r="A21" s="103"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="101"/>
+      <c r="E21" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" thickTop="1">
+      <c r="A22" s="102" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="98" t="s">
+        <v>117</v>
+      </c>
+      <c r="C22" s="98" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="98" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" s="98" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" s="94" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15" customHeight="1" thickBot="1">
+      <c r="A23" s="103"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="95"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" customHeight="1" thickTop="1">
+      <c r="A24" s="104" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="99" t="s">
+        <v>118</v>
+      </c>
+      <c r="C24" s="99"/>
+      <c r="D24" s="98" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="93" t="s">
+        <v>60</v>
+      </c>
+      <c r="F24" s="96"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A25" s="103"/>
+      <c r="B25" s="89"/>
+      <c r="C25" s="89"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="95"/>
+    </row>
+    <row r="26" spans="1:6" ht="12.95" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+    </row>
+    <row r="27" spans="1:6" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A27" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="26.25" customHeight="1" thickTop="1">
+      <c r="A28" s="102" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="100" t="s">
+        <v>137</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15" customHeight="1" thickBot="1">
+      <c r="A29" s="103"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="101"/>
+      <c r="E29" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15" customHeight="1" thickTop="1">
+      <c r="A30" s="104" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="98" t="s">
+        <v>119</v>
+      </c>
+      <c r="C30" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="98" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" s="93" t="s">
+        <v>59</v>
+      </c>
+      <c r="F30" s="97" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15" customHeight="1" thickBot="1">
+      <c r="A31" s="103"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="95"/>
+    </row>
+    <row r="32" spans="1:6" ht="15" customHeight="1" thickTop="1">
+      <c r="A32" s="104" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="99" t="s">
+        <v>120</v>
+      </c>
+      <c r="C32" s="99"/>
+      <c r="D32" s="98" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32" s="93" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" s="96"/>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A33" s="103"/>
+      <c r="B33" s="89"/>
+      <c r="C33" s="89"/>
+      <c r="D33" s="66"/>
+      <c r="E33" s="66"/>
+      <c r="F33" s="95"/>
+    </row>
+    <row r="34" spans="1:6" ht="12.95" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+    </row>
+    <row r="35" spans="1:6" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A35" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="26.25" customHeight="1" thickTop="1">
+      <c r="A36" s="102" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="100" t="s">
+        <v>137</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15" customHeight="1" thickBot="1">
+      <c r="A37" s="103"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="101"/>
+      <c r="E37" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F37" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15" customHeight="1" thickTop="1">
+      <c r="A38" s="104" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" s="98" t="s">
+        <v>121</v>
+      </c>
+      <c r="C38" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="D38" s="98" t="s">
+        <v>58</v>
+      </c>
+      <c r="E38" s="93" t="s">
+        <v>59</v>
+      </c>
+      <c r="F38" s="97" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15" customHeight="1" thickBot="1">
+      <c r="A39" s="103"/>
+      <c r="B39" s="66"/>
+      <c r="C39" s="66"/>
+      <c r="D39" s="66"/>
+      <c r="E39" s="66"/>
+      <c r="F39" s="95"/>
+    </row>
+    <row r="40" spans="1:6" ht="15" customHeight="1" thickTop="1">
+      <c r="A40" s="104" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40" s="99" t="s">
+        <v>122</v>
+      </c>
+      <c r="C40" s="99"/>
+      <c r="D40" s="98" t="s">
+        <v>54</v>
+      </c>
+      <c r="E40" s="93" t="s">
+        <v>60</v>
+      </c>
+      <c r="F40" s="96"/>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A41" s="103"/>
+      <c r="B41" s="89"/>
+      <c r="C41" s="89"/>
+      <c r="D41" s="66"/>
+      <c r="E41" s="66"/>
+      <c r="F41" s="95"/>
+    </row>
+    <row r="42" spans="1:6" ht="12.95" customHeight="1" thickTop="1">
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+    </row>
+    <row r="43" spans="1:6" ht="23.25">
+      <c r="A43" s="111" t="s">
+        <v>79</v>
+      </c>
+      <c r="B43" s="111"/>
+      <c r="C43" s="111"/>
+      <c r="D43" s="111"/>
+      <c r="E43" s="111"/>
+      <c r="F43" s="111"/>
+    </row>
+    <row r="44" spans="1:6" ht="12.95" customHeight="1">
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+    </row>
+    <row r="45" spans="1:6" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A45" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="26.25" customHeight="1" thickTop="1">
+      <c r="A46" s="102" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" s="100" t="s">
+        <v>137</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15" customHeight="1" thickBot="1">
+      <c r="A47" s="103"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" s="101"/>
+      <c r="E47" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F47" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15" customHeight="1" thickTop="1">
+      <c r="A48" s="104" t="s">
+        <v>20</v>
+      </c>
+      <c r="B48" s="98" t="s">
+        <v>123</v>
+      </c>
+      <c r="C48" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="D48" s="98" t="s">
+        <v>58</v>
+      </c>
+      <c r="E48" s="93" t="s">
+        <v>59</v>
+      </c>
+      <c r="F48" s="97" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15" customHeight="1" thickBot="1">
+      <c r="A49" s="103"/>
+      <c r="B49" s="66"/>
+      <c r="C49" s="66"/>
+      <c r="D49" s="66"/>
+      <c r="E49" s="66"/>
+      <c r="F49" s="95"/>
+    </row>
+    <row r="50" spans="1:6" ht="15" customHeight="1" thickTop="1">
+      <c r="A50" s="104" t="s">
+        <v>26</v>
+      </c>
+      <c r="B50" s="99" t="s">
+        <v>124</v>
+      </c>
+      <c r="C50" s="99"/>
+      <c r="D50" s="98" t="s">
+        <v>54</v>
+      </c>
+      <c r="E50" s="93" t="s">
+        <v>60</v>
+      </c>
+      <c r="F50" s="96"/>
+    </row>
+    <row r="51" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A51" s="103"/>
+      <c r="B51" s="89"/>
+      <c r="C51" s="89"/>
+      <c r="D51" s="66"/>
+      <c r="E51" s="66"/>
+      <c r="F51" s="95"/>
+    </row>
+    <row r="52" spans="1:6" ht="12.95" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="18"/>
+    </row>
+    <row r="53" spans="1:6" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A53" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="F53" s="13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="26.25" customHeight="1" thickTop="1">
+      <c r="A54" s="102" t="s">
+        <v>14</v>
+      </c>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54" s="100" t="s">
+        <v>137</v>
+      </c>
+      <c r="E54" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F54" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15" customHeight="1" thickBot="1">
+      <c r="A55" s="103"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D55" s="101"/>
+      <c r="E55" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F55" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="15" customHeight="1" thickTop="1">
+      <c r="A56" s="104" t="s">
+        <v>20</v>
+      </c>
+      <c r="B56" s="98" t="s">
+        <v>125</v>
+      </c>
+      <c r="C56" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="D56" s="98" t="s">
+        <v>58</v>
+      </c>
+      <c r="E56" s="93" t="s">
+        <v>59</v>
+      </c>
+      <c r="F56" s="97" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="15" customHeight="1" thickBot="1">
+      <c r="A57" s="103"/>
+      <c r="B57" s="66"/>
+      <c r="C57" s="66"/>
+      <c r="D57" s="66"/>
+      <c r="E57" s="66"/>
+      <c r="F57" s="95"/>
+    </row>
+    <row r="58" spans="1:6" ht="15" customHeight="1" thickTop="1">
+      <c r="A58" s="104" t="s">
+        <v>26</v>
+      </c>
+      <c r="B58" s="99" t="s">
+        <v>126</v>
+      </c>
+      <c r="C58" s="99"/>
+      <c r="D58" s="98" t="s">
+        <v>54</v>
+      </c>
+      <c r="E58" s="93" t="s">
+        <v>60</v>
+      </c>
+      <c r="F58" s="96"/>
+    </row>
+    <row r="59" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A59" s="103"/>
+      <c r="B59" s="89"/>
+      <c r="C59" s="89"/>
+      <c r="D59" s="66"/>
+      <c r="E59" s="66"/>
+      <c r="F59" s="95"/>
+    </row>
+    <row r="60" spans="1:6" ht="12.95" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B60" s="18"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="18"/>
+    </row>
+    <row r="61" spans="1:6" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A61" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="E61" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="F61" s="13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="25.5" customHeight="1" thickTop="1">
+      <c r="A62" s="102" t="s">
+        <v>14</v>
+      </c>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D62" s="100" t="s">
+        <v>137</v>
+      </c>
+      <c r="E62" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F62" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="15" customHeight="1" thickBot="1">
+      <c r="A63" s="103"/>
+      <c r="B63" s="16"/>
+      <c r="C63" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D63" s="101"/>
+      <c r="E63" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F63" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="15" customHeight="1" thickTop="1">
+      <c r="A64" s="104" t="s">
+        <v>20</v>
+      </c>
+      <c r="B64" s="98" t="s">
+        <v>127</v>
+      </c>
+      <c r="C64" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="D64" s="98" t="s">
+        <v>58</v>
+      </c>
+      <c r="E64" s="93" t="s">
+        <v>59</v>
+      </c>
+      <c r="F64" s="97" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="15" customHeight="1" thickBot="1">
+      <c r="A65" s="103"/>
+      <c r="B65" s="66"/>
+      <c r="C65" s="66"/>
+      <c r="D65" s="66"/>
+      <c r="E65" s="66"/>
+      <c r="F65" s="95"/>
+    </row>
+    <row r="66" spans="1:6" ht="15" customHeight="1" thickTop="1">
+      <c r="A66" s="104" t="s">
+        <v>26</v>
+      </c>
+      <c r="B66" s="99" t="s">
+        <v>128</v>
+      </c>
+      <c r="C66" s="99"/>
+      <c r="D66" s="98" t="s">
+        <v>54</v>
+      </c>
+      <c r="E66" s="93" t="s">
+        <v>60</v>
+      </c>
+      <c r="F66" s="96"/>
+    </row>
+    <row r="67" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A67" s="103"/>
+      <c r="B67" s="89"/>
+      <c r="C67" s="89"/>
+      <c r="D67" s="66"/>
+      <c r="E67" s="66"/>
+      <c r="F67" s="95"/>
+    </row>
+    <row r="68" spans="1:6" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A68" s="58"/>
+      <c r="B68" s="59"/>
+      <c r="C68" s="59"/>
+      <c r="D68" s="60"/>
+      <c r="E68" s="60"/>
+      <c r="F68" s="61"/>
+    </row>
+    <row r="69" spans="1:6" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A69" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B69" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="D69" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="E69" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="F69" s="13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="24.75" customHeight="1" thickTop="1">
+      <c r="A70" s="102" t="s">
+        <v>14</v>
+      </c>
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="62"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="15"/>
+    </row>
+    <row r="71" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A71" s="103"/>
+      <c r="B71" s="16"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="63"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="17"/>
+    </row>
+    <row r="72" spans="1:6" ht="15.75" customHeight="1" thickTop="1">
+      <c r="A72" s="104" t="s">
+        <v>20</v>
+      </c>
+      <c r="B72" s="98" t="s">
+        <v>129</v>
+      </c>
+      <c r="C72" s="93"/>
+      <c r="D72" s="93"/>
+      <c r="E72" s="93"/>
+      <c r="F72" s="97"/>
+    </row>
+    <row r="73" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A73" s="103"/>
+      <c r="B73" s="66"/>
+      <c r="C73" s="66"/>
+      <c r="D73" s="66"/>
+      <c r="E73" s="66"/>
+      <c r="F73" s="95"/>
+    </row>
+    <row r="74" spans="1:6" ht="15.75" customHeight="1" thickTop="1">
+      <c r="A74" s="104" t="s">
+        <v>26</v>
+      </c>
+      <c r="B74" s="99" t="s">
+        <v>130</v>
+      </c>
+      <c r="C74" s="99"/>
+      <c r="D74" s="116"/>
+      <c r="E74" s="93"/>
+      <c r="F74" s="96"/>
+    </row>
+    <row r="75" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A75" s="103"/>
+      <c r="B75" s="89"/>
+      <c r="C75" s="89"/>
+      <c r="D75" s="66"/>
+      <c r="E75" s="66"/>
+      <c r="F75" s="95"/>
+    </row>
+    <row r="76" spans="1:6" ht="7.5" customHeight="1" thickTop="1">
+      <c r="A76" s="19"/>
+      <c r="B76" s="20"/>
+      <c r="C76" s="20"/>
+      <c r="D76" s="20"/>
+      <c r="E76" s="20"/>
+      <c r="F76" s="21"/>
+    </row>
+    <row r="77" spans="1:6" ht="15.75">
+      <c r="A77" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="B77" s="23"/>
+      <c r="C77" s="23"/>
+      <c r="D77" s="23"/>
+      <c r="E77" s="112" t="s">
+        <v>30</v>
+      </c>
+      <c r="F77" s="113"/>
+    </row>
+    <row r="78" spans="1:6" ht="15.75">
+      <c r="A78" s="64" t="s">
+        <v>136</v>
+      </c>
+      <c r="B78" s="25"/>
+      <c r="C78" s="25"/>
+      <c r="D78" s="25"/>
+      <c r="E78" s="112" t="s">
+        <v>34</v>
+      </c>
+      <c r="F78" s="113"/>
+    </row>
+    <row r="79" spans="1:6" ht="15.75">
+      <c r="A79" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B79" s="25"/>
+      <c r="C79" s="25"/>
+      <c r="D79" s="25"/>
+      <c r="E79" s="112" t="s">
+        <v>36</v>
+      </c>
+      <c r="F79" s="113"/>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="26"/>
+      <c r="B80" s="27"/>
+      <c r="C80" s="27"/>
+      <c r="D80" s="27"/>
+      <c r="E80" s="114" t="s">
+        <v>41</v>
+      </c>
+      <c r="F80" s="115"/>
+    </row>
+    <row r="82" spans="1:6" ht="15.75">
+      <c r="A82" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B82" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C82" s="18"/>
+      <c r="D82" s="18"/>
+      <c r="E82" s="18"/>
+      <c r="F82" s="18"/>
+    </row>
+    <row r="83" spans="1:6" ht="15.75">
+      <c r="A83" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B83" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C83" s="18"/>
+      <c r="D83" s="18"/>
+      <c r="E83" s="18"/>
+      <c r="F83" s="18"/>
+    </row>
+    <row r="84" spans="1:6" ht="15.75">
+      <c r="A84" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B84" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C84" s="18"/>
+      <c r="D84" s="18"/>
+      <c r="E84" s="18"/>
+      <c r="F84" s="18"/>
+    </row>
+    <row r="85" spans="1:6" ht="15.75">
+      <c r="A85" s="30"/>
+      <c r="B85" s="18"/>
+      <c r="C85" s="18"/>
+      <c r="D85" s="18"/>
+      <c r="E85" s="18"/>
+      <c r="F85" s="18"/>
+    </row>
+    <row r="86" spans="1:6" ht="15.75">
+      <c r="A86" s="30"/>
+      <c r="B86" s="18"/>
+      <c r="C86" s="18"/>
+      <c r="D86" s="18"/>
+      <c r="E86" s="18"/>
+      <c r="F86" s="18"/>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="B87" s="18"/>
+      <c r="C87" s="18"/>
+      <c r="D87" s="18"/>
+      <c r="E87" s="18"/>
+      <c r="F87" s="18"/>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="B88" s="18"/>
+      <c r="C88" s="18"/>
+      <c r="D88" s="18"/>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="B89" s="18"/>
+      <c r="C89" s="18"/>
+      <c r="D89" s="18"/>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="B90" s="18"/>
+      <c r="C90" s="18"/>
+      <c r="D90" s="18"/>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="B91" s="18"/>
+      <c r="C91" s="18"/>
+      <c r="D91" s="18"/>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="B92" s="18"/>
+      <c r="C92" s="18"/>
+      <c r="D92" s="18"/>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="B93" s="18"/>
+      <c r="C93" s="18"/>
+      <c r="D93" s="18"/>
+    </row>
+    <row r="94" spans="1:6" ht="15.75">
+      <c r="A94" s="83"/>
+      <c r="B94" s="83"/>
+      <c r="C94" s="83"/>
+      <c r="D94" s="83"/>
+    </row>
+    <row r="95" spans="1:6" ht="15.75">
+      <c r="A95" s="30"/>
+      <c r="B95" s="18"/>
+      <c r="C95" s="18"/>
+      <c r="D95" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="120">
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="B12:B17"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E24:E25"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.45" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="60" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:4" ht="17.25" thickTop="1" thickBot="1">
+      <c r="B2" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="52" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="16.5" thickTop="1">
+      <c r="B3" s="53">
+        <v>1</v>
+      </c>
+      <c r="C3" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" s="53" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="15.75">
+      <c r="B4" s="117">
+        <v>2</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" s="117" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="15.75">
+      <c r="B5" s="118"/>
+      <c r="C5" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="118"/>
+    </row>
+    <row r="6" spans="2:4" ht="15.75">
+      <c r="B6" s="117">
+        <v>3</v>
+      </c>
+      <c r="C6" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" s="117" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="15.75">
+      <c r="B7" s="118"/>
+      <c r="C7" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" s="118"/>
+    </row>
+    <row r="8" spans="2:4" ht="15.75">
+      <c r="B8" s="117">
+        <v>4</v>
+      </c>
+      <c r="C8" s="56" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" s="117" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="15.75">
+      <c r="B9" s="118"/>
+      <c r="C9" s="56" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" s="118"/>
+    </row>
+    <row r="10" spans="2:4" ht="15.75">
+      <c r="B10" s="57">
+        <v>5</v>
+      </c>
+      <c r="C10" s="56" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="57" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>